--- a/tut05/output/0401CS08.xlsx
+++ b/tut05/output/0401CS08.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.612244897959183</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>8.181818181818182</v>
+        <v>8.18</v>
       </c>
       <c r="D6" t="n">
-        <v>9.325581395348838</v>
+        <v>9.33</v>
       </c>
       <c r="E6" t="n">
-        <v>9.446808510638299</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>9.404761904761905</v>
+        <v>9.4</v>
       </c>
       <c r="G6" t="n">
         <v>9.35</v>
       </c>
       <c r="H6" t="n">
-        <v>9.951219512195122</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>9.699999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.612244897959183</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>8.408602150537634</v>
+        <v>8.41</v>
       </c>
       <c r="D8" t="n">
-        <v>8.698529411764707</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>8.890710382513662</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8.986666666666666</v>
+        <v>8.99</v>
       </c>
       <c r="G8" t="n">
-        <v>9.041509433962265</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>9.163398692810457</v>
+        <v>9.16</v>
       </c>
       <c r="I8" t="n">
-        <v>9.22543352601156</v>
+        <v>9.23</v>
       </c>
     </row>
   </sheetData>
